--- a/Life Expectancy for Countries est in 2015.xlsx
+++ b/Life Expectancy for Countries est in 2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofeng/Projects/IntroPythonPlot/assignment4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofeng/Projects/IntroPythonPlot/pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="231">
   <si>
     <t>Rank</t>
   </si>
@@ -173,12 +173,6 @@
     <t>Wallis and Futuna</t>
   </si>
   <si>
-    <t>Saint Helena, Ascension,</t>
-  </si>
-  <si>
-    <t>and Tristan da Cunha</t>
-  </si>
-  <si>
     <t>Gibraltar</t>
   </si>
   <si>
@@ -723,6 +717,9 @@
   </si>
   <si>
     <t>Years</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension, and Tristan da Cunha</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D226"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1680,7 +1677,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="C46">
         <v>79.36</v>
@@ -1690,19 +1687,28 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>79.28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48">
-        <v>79.28</v>
+        <v>79.25</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
@@ -1710,10 +1716,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49">
         <v>79.25</v>
@@ -1724,13 +1730,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50">
-        <v>79.25</v>
+        <v>79.16</v>
       </c>
       <c r="D50" t="s">
         <v>4</v>
@@ -1738,13 +1744,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51">
-        <v>79.16</v>
+        <v>78.98</v>
       </c>
       <c r="D51" t="s">
         <v>4</v>
@@ -1752,13 +1758,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52">
-        <v>78.98</v>
+        <v>78.73</v>
       </c>
       <c r="D52" t="s">
         <v>4</v>
@@ -1766,13 +1772,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53">
-        <v>78.73</v>
+        <v>78.61</v>
       </c>
       <c r="D53" t="s">
         <v>4</v>
@@ -1780,13 +1786,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54">
-        <v>78.61</v>
+        <v>78.59</v>
       </c>
       <c r="D54" t="s">
         <v>4</v>
@@ -1794,13 +1800,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55">
-        <v>78.59</v>
+        <v>78.510000000000005</v>
       </c>
       <c r="D55" t="s">
         <v>4</v>
@@ -1808,13 +1814,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56">
-        <v>78.510000000000005</v>
+        <v>78.48</v>
       </c>
       <c r="D56" t="s">
         <v>4</v>
@@ -1822,13 +1828,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57">
-        <v>78.48</v>
+        <v>78.47</v>
       </c>
       <c r="D57" t="s">
         <v>4</v>
@@ -1836,13 +1842,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58">
-        <v>78.47</v>
+        <v>78.459999999999994</v>
       </c>
       <c r="D58" t="s">
         <v>4</v>
@@ -1850,13 +1856,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59">
-        <v>78.459999999999994</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="D59" t="s">
         <v>4</v>
@@ -1864,13 +1870,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60">
-        <v>78.400000000000006</v>
+        <v>78.39</v>
       </c>
       <c r="D60" t="s">
         <v>4</v>
@@ -1878,13 +1884,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61">
-        <v>78.39</v>
+        <v>78.13</v>
       </c>
       <c r="D61" t="s">
         <v>4</v>
@@ -1892,13 +1898,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62">
-        <v>78.13</v>
+        <v>78.010000000000005</v>
       </c>
       <c r="D62" t="s">
         <v>4</v>
@@ -1906,41 +1912,41 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>77.98</v>
+      </c>
+      <c r="D63" t="s">
         <v>65</v>
-      </c>
-      <c r="C63">
-        <v>78.010000000000005</v>
-      </c>
-      <c r="D63" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>66</v>
       </c>
       <c r="C64">
-        <v>77.98</v>
+        <v>77.97</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65">
-        <v>77.97</v>
+        <v>77.819999999999993</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -1948,10 +1954,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>77.819999999999993</v>
@@ -1962,13 +1968,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67">
-        <v>77.819999999999993</v>
+        <v>77.69</v>
       </c>
       <c r="D67" t="s">
         <v>4</v>
@@ -1976,41 +1982,41 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>77.61</v>
+      </c>
+      <c r="D68" t="s">
         <v>71</v>
-      </c>
-      <c r="C68">
-        <v>77.69</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
       </c>
       <c r="C69">
-        <v>77.61</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70">
-        <v>77.599999999999994</v>
+        <v>77.5</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -2018,13 +2024,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71">
-        <v>77.5</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="D71" t="s">
         <v>4</v>
@@ -2032,10 +2038,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72">
         <v>77.400000000000006</v>
@@ -2046,13 +2052,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73">
-        <v>77.400000000000006</v>
+        <v>77.290000000000006</v>
       </c>
       <c r="D73" t="s">
         <v>4</v>
@@ -2060,13 +2066,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74">
-        <v>77.290000000000006</v>
+        <v>77</v>
       </c>
       <c r="D74" t="s">
         <v>4</v>
@@ -2074,13 +2080,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C75">
-        <v>77</v>
+        <v>76.989999999999995</v>
       </c>
       <c r="D75" t="s">
         <v>4</v>
@@ -2088,13 +2094,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C76">
-        <v>76.989999999999995</v>
+        <v>76.98</v>
       </c>
       <c r="D76" t="s">
         <v>4</v>
@@ -2102,13 +2108,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77">
-        <v>76.98</v>
+        <v>76.97</v>
       </c>
       <c r="D77" t="s">
         <v>4</v>
@@ -2116,13 +2122,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78">
-        <v>76.97</v>
+        <v>76.88</v>
       </c>
       <c r="D78" t="s">
         <v>4</v>
@@ -2130,13 +2136,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79">
-        <v>76.88</v>
+        <v>76.790000000000006</v>
       </c>
       <c r="D79" t="s">
         <v>4</v>
@@ -2144,13 +2150,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80">
-        <v>76.790000000000006</v>
+        <v>76.709999999999994</v>
       </c>
       <c r="D80" t="s">
         <v>4</v>
@@ -2158,13 +2164,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81">
-        <v>76.709999999999994</v>
+        <v>76.61</v>
       </c>
       <c r="D81" t="s">
         <v>4</v>
@@ -2172,13 +2178,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82">
-        <v>76.61</v>
+        <v>76.59</v>
       </c>
       <c r="D82" t="s">
         <v>4</v>
@@ -2186,13 +2192,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83">
-        <v>76.59</v>
+        <v>76.56</v>
       </c>
       <c r="D83" t="s">
         <v>4</v>
@@ -2200,10 +2206,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84">
         <v>76.56</v>
@@ -2214,10 +2220,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85">
         <v>76.56</v>
@@ -2228,13 +2234,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86">
-        <v>76.56</v>
+        <v>76.55</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -2242,13 +2248,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87">
-        <v>76.55</v>
+        <v>76.47</v>
       </c>
       <c r="D87" t="s">
         <v>4</v>
@@ -2256,13 +2262,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88">
-        <v>76.47</v>
+        <v>76.33</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -2270,13 +2276,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C89">
-        <v>76.33</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="D89" t="s">
         <v>4</v>
@@ -2284,13 +2290,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C90">
-        <v>76.260000000000005</v>
+        <v>76.040000000000006</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -2298,13 +2304,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C91">
-        <v>76.040000000000006</v>
+        <v>76.02</v>
       </c>
       <c r="D91" t="s">
         <v>4</v>
@@ -2312,13 +2318,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C92">
-        <v>76.02</v>
+        <v>75.95</v>
       </c>
       <c r="D92" t="s">
         <v>4</v>
@@ -2326,13 +2332,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93">
-        <v>75.95</v>
+        <v>75.91</v>
       </c>
       <c r="D93" t="s">
         <v>4</v>
@@ -2340,13 +2346,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C94">
-        <v>75.91</v>
+        <v>75.89</v>
       </c>
       <c r="D94" t="s">
         <v>4</v>
@@ -2354,13 +2360,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95">
-        <v>75.89</v>
+        <v>75.69</v>
       </c>
       <c r="D95" t="s">
         <v>4</v>
@@ -2368,13 +2374,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96">
-        <v>75.69</v>
+        <v>75.650000000000006</v>
       </c>
       <c r="D96" t="s">
         <v>4</v>
@@ -2382,13 +2388,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97">
-        <v>75.650000000000006</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="D97" t="s">
         <v>4</v>
@@ -2396,13 +2402,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98">
-        <v>75.599999999999994</v>
+        <v>75.52</v>
       </c>
       <c r="D98" t="s">
         <v>4</v>
@@ -2410,13 +2416,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99">
-        <v>75.52</v>
+        <v>75.48</v>
       </c>
       <c r="D99" t="s">
         <v>4</v>
@@ -2424,13 +2430,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100">
-        <v>75.48</v>
+        <v>75.41</v>
       </c>
       <c r="D100" t="s">
         <v>4</v>
@@ -2438,13 +2444,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101">
-        <v>75.41</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="D101" t="s">
         <v>4</v>
@@ -2452,13 +2458,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102">
-        <v>75.400000000000006</v>
+        <v>75.37</v>
       </c>
       <c r="D102" t="s">
         <v>4</v>
@@ -2466,13 +2472,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C103">
-        <v>75.37</v>
+        <v>75.260000000000005</v>
       </c>
       <c r="D103" t="s">
         <v>4</v>
@@ -2480,13 +2486,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C104">
-        <v>75.260000000000005</v>
+        <v>75.209999999999994</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
@@ -2494,13 +2500,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C105">
-        <v>75.209999999999994</v>
+        <v>75.180000000000007</v>
       </c>
       <c r="D105" t="s">
         <v>4</v>
@@ -2508,13 +2514,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106">
-        <v>75.180000000000007</v>
+        <v>75.14</v>
       </c>
       <c r="D106" t="s">
         <v>4</v>
@@ -2522,13 +2528,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C107">
-        <v>75.14</v>
+        <v>75.12</v>
       </c>
       <c r="D107" t="s">
         <v>4</v>
@@ -2536,13 +2542,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C108">
-        <v>75.12</v>
+        <v>75.09</v>
       </c>
       <c r="D108" t="s">
         <v>4</v>
@@ -2550,13 +2556,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C109">
-        <v>75.09</v>
+        <v>75.05</v>
       </c>
       <c r="D109" t="s">
         <v>4</v>
@@ -2564,13 +2570,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110">
-        <v>75.05</v>
+        <v>74.92</v>
       </c>
       <c r="D110" t="s">
         <v>4</v>
@@ -2578,13 +2584,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111">
-        <v>74.92</v>
+        <v>74.87</v>
       </c>
       <c r="D111" t="s">
         <v>4</v>
@@ -2592,13 +2598,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C112">
-        <v>74.87</v>
+        <v>74.849999999999994</v>
       </c>
       <c r="D112" t="s">
         <v>4</v>
@@ -2606,13 +2612,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C113">
-        <v>74.849999999999994</v>
+        <v>74.75</v>
       </c>
       <c r="D113" t="s">
         <v>4</v>
@@ -2620,13 +2626,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114">
-        <v>74.75</v>
+        <v>74.69</v>
       </c>
       <c r="D114" t="s">
         <v>4</v>
@@ -2634,10 +2640,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115">
         <v>74.69</v>
@@ -2648,13 +2654,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C116">
-        <v>74.69</v>
+        <v>74.569999999999993</v>
       </c>
       <c r="D116" t="s">
         <v>4</v>
@@ -2662,13 +2668,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C117">
-        <v>74.569999999999993</v>
+        <v>74.540000000000006</v>
       </c>
       <c r="D117" t="s">
         <v>4</v>
@@ -2676,13 +2682,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C118">
-        <v>74.540000000000006</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="D118" t="s">
         <v>4</v>
@@ -2690,13 +2696,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C119">
-        <v>74.489999999999995</v>
+        <v>74.430000000000007</v>
       </c>
       <c r="D119" t="s">
         <v>4</v>
@@ -2704,13 +2710,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C120">
-        <v>74.430000000000007</v>
+        <v>74.42</v>
       </c>
       <c r="D120" t="s">
         <v>4</v>
@@ -2718,13 +2724,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C121">
-        <v>74.42</v>
+        <v>74.39</v>
       </c>
       <c r="D121" t="s">
         <v>4</v>
@@ -2732,13 +2738,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C122">
-        <v>74.39</v>
+        <v>74.37</v>
       </c>
       <c r="D122" t="s">
         <v>4</v>
@@ -2746,13 +2752,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C123">
-        <v>74.37</v>
+        <v>74.349999999999994</v>
       </c>
       <c r="D123" t="s">
         <v>4</v>
@@ -2760,13 +2766,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C124">
-        <v>74.349999999999994</v>
+        <v>74.23</v>
       </c>
       <c r="D124" t="s">
         <v>4</v>
@@ -2774,13 +2780,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C125">
-        <v>74.23</v>
+        <v>74.14</v>
       </c>
       <c r="D125" t="s">
         <v>4</v>
@@ -2788,13 +2794,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C126">
-        <v>74.14</v>
+        <v>74.05</v>
       </c>
       <c r="D126" t="s">
         <v>4</v>
@@ -2802,13 +2808,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C127">
-        <v>74.05</v>
+        <v>73.7</v>
       </c>
       <c r="D127" t="s">
         <v>4</v>
@@ -2816,13 +2822,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C128">
-        <v>73.7</v>
+        <v>73.55</v>
       </c>
       <c r="D128" t="s">
         <v>4</v>
@@ -2830,10 +2836,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C129">
         <v>73.55</v>
@@ -2844,13 +2850,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130">
-        <v>73.55</v>
+        <v>73.53</v>
       </c>
       <c r="D130" t="s">
         <v>4</v>
@@ -2858,13 +2864,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C131">
-        <v>73.53</v>
+        <v>73.48</v>
       </c>
       <c r="D131" t="s">
         <v>4</v>
@@ -2872,13 +2878,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132">
-        <v>73.48</v>
+        <v>73.459999999999994</v>
       </c>
       <c r="D132" t="s">
         <v>4</v>
@@ -2886,13 +2892,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C133">
-        <v>73.459999999999994</v>
+        <v>73.16</v>
       </c>
       <c r="D133" t="s">
         <v>4</v>
@@ -2900,13 +2906,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C134">
-        <v>73.16</v>
+        <v>73.06</v>
       </c>
       <c r="D134" t="s">
         <v>4</v>
@@ -2914,13 +2920,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C135">
-        <v>73.06</v>
+        <v>72.98</v>
       </c>
       <c r="D135" t="s">
         <v>4</v>
@@ -2928,13 +2934,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C136">
-        <v>72.98</v>
+        <v>72.87</v>
       </c>
       <c r="D136" t="s">
         <v>4</v>
@@ -2942,13 +2948,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C137">
-        <v>72.87</v>
+        <v>72.84</v>
       </c>
       <c r="D137" t="s">
         <v>4</v>
@@ -2956,13 +2962,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C138">
-        <v>72.84</v>
+        <v>72.62</v>
       </c>
       <c r="D138" t="s">
         <v>4</v>
@@ -2970,13 +2976,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C139">
-        <v>72.62</v>
+        <v>72.59</v>
       </c>
       <c r="D139" t="s">
         <v>4</v>
@@ -2984,13 +2990,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C140">
-        <v>72.59</v>
+        <v>72.48</v>
       </c>
       <c r="D140" t="s">
         <v>4</v>
@@ -2998,13 +3004,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C141">
-        <v>72.48</v>
+        <v>72.45</v>
       </c>
       <c r="D141" t="s">
         <v>4</v>
@@ -3012,13 +3018,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C142">
-        <v>72.45</v>
+        <v>72.430000000000007</v>
       </c>
       <c r="D142" t="s">
         <v>4</v>
@@ -3026,13 +3032,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C143">
-        <v>72.430000000000007</v>
+        <v>72.2</v>
       </c>
       <c r="D143" t="s">
         <v>4</v>
@@ -3040,10 +3046,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C144">
         <v>72.2</v>
@@ -3054,13 +3060,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C145">
-        <v>72.2</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="D145" t="s">
         <v>4</v>
@@ -3068,13 +3074,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C146">
-        <v>72.099999999999994</v>
+        <v>72.02</v>
       </c>
       <c r="D146" t="s">
         <v>4</v>
@@ -3082,13 +3088,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C147">
-        <v>72.02</v>
+        <v>71.97</v>
       </c>
       <c r="D147" t="s">
         <v>4</v>
@@ -3096,13 +3102,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C148">
-        <v>71.97</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="D148" t="s">
         <v>4</v>
@@ -3110,13 +3116,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C149">
-        <v>71.849999999999994</v>
+        <v>71.569999999999993</v>
       </c>
       <c r="D149" t="s">
         <v>4</v>
@@ -3124,13 +3130,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C150">
-        <v>71.569999999999993</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="D150" t="s">
         <v>4</v>
@@ -3138,13 +3144,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C151">
-        <v>71.150000000000006</v>
+        <v>71</v>
       </c>
       <c r="D151" t="s">
         <v>4</v>
@@ -3152,13 +3158,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C152">
-        <v>71</v>
+        <v>70.94</v>
       </c>
       <c r="D152" t="s">
         <v>4</v>
@@ -3166,13 +3172,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C153">
-        <v>70.94</v>
+        <v>70.55</v>
       </c>
       <c r="D153" t="s">
         <v>4</v>
@@ -3180,13 +3186,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C154">
-        <v>70.55</v>
+        <v>70.47</v>
       </c>
       <c r="D154" t="s">
         <v>4</v>
@@ -3194,13 +3200,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C155">
-        <v>70.47</v>
+        <v>70.42</v>
       </c>
       <c r="D155" t="s">
         <v>4</v>
@@ -3208,13 +3214,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C156">
-        <v>70.42</v>
+        <v>70.36</v>
       </c>
       <c r="D156" t="s">
         <v>4</v>
@@ -3222,13 +3228,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C157">
-        <v>70.36</v>
+        <v>70.11</v>
       </c>
       <c r="D157" t="s">
         <v>4</v>
@@ -3236,13 +3242,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C158">
-        <v>70.11</v>
+        <v>69.78</v>
       </c>
       <c r="D158" t="s">
         <v>4</v>
@@ -3250,13 +3256,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C159">
-        <v>69.78</v>
+        <v>69.510000000000005</v>
       </c>
       <c r="D159" t="s">
         <v>4</v>
@@ -3264,13 +3270,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C160">
-        <v>69.510000000000005</v>
+        <v>69.290000000000006</v>
       </c>
       <c r="D160" t="s">
         <v>4</v>
@@ -3278,13 +3284,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C161">
-        <v>69.290000000000006</v>
+        <v>68.959999999999994</v>
       </c>
       <c r="D161" t="s">
         <v>4</v>
@@ -3292,13 +3298,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C162">
-        <v>68.959999999999994</v>
+        <v>68.86</v>
       </c>
       <c r="D162" t="s">
         <v>4</v>
@@ -3306,13 +3312,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C163">
-        <v>68.86</v>
+        <v>68.59</v>
       </c>
       <c r="D163" t="s">
         <v>4</v>
@@ -3320,13 +3326,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C164">
-        <v>68.59</v>
+        <v>68.13</v>
       </c>
       <c r="D164" t="s">
         <v>4</v>
@@ -3334,13 +3340,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C165">
-        <v>68.13</v>
+        <v>68.09</v>
       </c>
       <c r="D165" t="s">
         <v>4</v>
@@ -3348,13 +3354,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C166">
-        <v>68.09</v>
+        <v>67.72</v>
       </c>
       <c r="D166" t="s">
         <v>4</v>
@@ -3362,13 +3368,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C167">
-        <v>67.72</v>
+        <v>67.52</v>
       </c>
       <c r="D167" t="s">
         <v>4</v>
@@ -3376,13 +3382,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C168">
-        <v>67.52</v>
+        <v>67.39</v>
       </c>
       <c r="D168" t="s">
         <v>4</v>
@@ -3390,10 +3396,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C169">
         <v>67.39</v>
@@ -3404,13 +3410,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C170">
-        <v>67.39</v>
+        <v>67.03</v>
       </c>
       <c r="D170" t="s">
         <v>4</v>
@@ -3418,13 +3424,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C171">
-        <v>67.03</v>
+        <v>66.75</v>
       </c>
       <c r="D171" t="s">
         <v>4</v>
@@ -3432,13 +3438,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C172">
-        <v>66.75</v>
+        <v>66.290000000000006</v>
       </c>
       <c r="D172" t="s">
         <v>4</v>
@@ -3446,13 +3452,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C173">
-        <v>66.290000000000006</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="D173" t="s">
         <v>4</v>
@@ -3460,13 +3466,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C174">
-        <v>66.180000000000007</v>
+        <v>66.16</v>
       </c>
       <c r="D174" t="s">
         <v>4</v>
@@ -3474,13 +3480,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C175">
-        <v>66.16</v>
+        <v>65.81</v>
       </c>
       <c r="D175" t="s">
         <v>4</v>
@@ -3488,13 +3494,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C176">
-        <v>65.81</v>
+        <v>65.55</v>
       </c>
       <c r="D176" t="s">
         <v>4</v>
@@ -3502,13 +3508,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C177">
-        <v>65.55</v>
+        <v>65.180000000000007</v>
       </c>
       <c r="D177" t="s">
         <v>4</v>
@@ -3516,13 +3522,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C178">
-        <v>65.180000000000007</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="D178" t="s">
         <v>4</v>
@@ -3530,13 +3536,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C179">
-        <v>64.599999999999994</v>
+        <v>64.58</v>
       </c>
       <c r="D179" t="s">
         <v>4</v>
@@ -3544,13 +3550,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C180">
-        <v>64.58</v>
+        <v>64.510000000000005</v>
       </c>
       <c r="D180" t="s">
         <v>4</v>
@@ -3558,13 +3564,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C181">
-        <v>64.510000000000005</v>
+        <v>64.14</v>
       </c>
       <c r="D181" t="s">
         <v>4</v>
@@ -3572,13 +3578,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C182">
-        <v>64.14</v>
+        <v>63.88</v>
       </c>
       <c r="D182" t="s">
         <v>4</v>
@@ -3586,13 +3592,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C183">
-        <v>63.88</v>
+        <v>63.85</v>
       </c>
       <c r="D183" t="s">
         <v>4</v>
@@ -3600,10 +3606,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C184">
         <v>63.85</v>
@@ -3614,13 +3620,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C185">
-        <v>63.85</v>
+        <v>63.81</v>
       </c>
       <c r="D185" t="s">
         <v>4</v>
@@ -3628,13 +3634,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C186">
-        <v>63.81</v>
+        <v>63.77</v>
       </c>
       <c r="D186" t="s">
         <v>4</v>
@@ -3642,13 +3648,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C187">
-        <v>63.77</v>
+        <v>63.68</v>
       </c>
       <c r="D187" t="s">
         <v>4</v>
@@ -3656,13 +3662,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C188">
-        <v>63.68</v>
+        <v>63.51</v>
       </c>
       <c r="D188" t="s">
         <v>4</v>
@@ -3670,13 +3676,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C189">
-        <v>63.51</v>
+        <v>62.79</v>
       </c>
       <c r="D189" t="s">
         <v>4</v>
@@ -3684,13 +3690,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C190">
-        <v>62.79</v>
+        <v>62.65</v>
       </c>
       <c r="D190" t="s">
         <v>4</v>
@@ -3698,13 +3704,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C191">
-        <v>62.65</v>
+        <v>62.64</v>
       </c>
       <c r="D191" t="s">
         <v>4</v>
@@ -3712,13 +3718,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C192">
-        <v>62.64</v>
+        <v>62.34</v>
       </c>
       <c r="D192" t="s">
         <v>4</v>
@@ -3726,13 +3732,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C193">
-        <v>62.34</v>
+        <v>61.71</v>
       </c>
       <c r="D193" t="s">
         <v>4</v>
@@ -3740,13 +3746,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C194">
-        <v>61.71</v>
+        <v>61.48</v>
       </c>
       <c r="D194" t="s">
         <v>4</v>
@@ -3754,13 +3760,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C195">
-        <v>61.48</v>
+        <v>61.47</v>
       </c>
       <c r="D195" t="s">
         <v>4</v>
@@ -3768,13 +3774,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C196">
-        <v>61.47</v>
+        <v>61.32</v>
       </c>
       <c r="D196" t="s">
         <v>4</v>
@@ -3782,13 +3788,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C197">
-        <v>61.32</v>
+        <v>60.66</v>
       </c>
       <c r="D197" t="s">
         <v>4</v>
@@ -3796,13 +3802,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C198">
-        <v>60.66</v>
+        <v>60.09</v>
       </c>
       <c r="D198" t="s">
         <v>4</v>
@@ -3810,13 +3816,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C199">
-        <v>60.09</v>
+        <v>60.08</v>
       </c>
       <c r="D199" t="s">
         <v>4</v>
@@ -3824,13 +3830,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C200">
-        <v>60.08</v>
+        <v>59.67</v>
       </c>
       <c r="D200" t="s">
         <v>4</v>
@@ -3838,13 +3844,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C201">
-        <v>59.67</v>
+        <v>58.79</v>
       </c>
       <c r="D201" t="s">
         <v>4</v>
@@ -3852,13 +3858,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C202">
-        <v>58.79</v>
+        <v>58.6</v>
       </c>
       <c r="D202" t="s">
         <v>4</v>
@@ -3866,13 +3872,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C203">
-        <v>58.6</v>
+        <v>58.34</v>
       </c>
       <c r="D203" t="s">
         <v>4</v>
@@ -3880,13 +3886,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C204">
-        <v>58.34</v>
+        <v>57.93</v>
       </c>
       <c r="D204" t="s">
         <v>4</v>
@@ -3894,13 +3900,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C205">
-        <v>57.93</v>
+        <v>57.79</v>
       </c>
       <c r="D205" t="s">
         <v>4</v>
@@ -3908,13 +3914,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C206">
-        <v>57.79</v>
+        <v>57.05</v>
       </c>
       <c r="D206" t="s">
         <v>4</v>
@@ -3922,13 +3928,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C207">
-        <v>57.05</v>
+        <v>56.93</v>
       </c>
       <c r="D207" t="s">
         <v>4</v>
@@ -3936,13 +3942,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C208">
-        <v>56.93</v>
+        <v>55.63</v>
       </c>
       <c r="D208" t="s">
         <v>4</v>
@@ -3950,13 +3956,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C209">
-        <v>55.63</v>
+        <v>55.34</v>
       </c>
       <c r="D209" t="s">
         <v>4</v>
@@ -3964,13 +3970,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C210">
-        <v>55.34</v>
+        <v>55.13</v>
       </c>
       <c r="D210" t="s">
         <v>4</v>
@@ -3978,13 +3984,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C211">
-        <v>55.13</v>
+        <v>55.12</v>
       </c>
       <c r="D211" t="s">
         <v>4</v>
@@ -3992,13 +3998,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C212">
-        <v>55.12</v>
+        <v>54.93</v>
       </c>
       <c r="D212" t="s">
         <v>4</v>
@@ -4006,13 +4012,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C213">
-        <v>54.93</v>
+        <v>54.18</v>
       </c>
       <c r="D213" t="s">
         <v>4</v>
@@ -4020,13 +4026,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C214">
-        <v>54.18</v>
+        <v>53.02</v>
       </c>
       <c r="D214" t="s">
         <v>4</v>
@@ -4034,13 +4040,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C215">
-        <v>53.02</v>
+        <v>52.94</v>
       </c>
       <c r="D215" t="s">
         <v>4</v>
@@ -4048,13 +4054,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C216">
-        <v>52.94</v>
+        <v>52.86</v>
       </c>
       <c r="D216" t="s">
         <v>4</v>
@@ -4062,13 +4068,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C217">
-        <v>52.86</v>
+        <v>52.15</v>
       </c>
       <c r="D217" t="s">
         <v>4</v>
@@ -4076,13 +4082,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C218">
-        <v>52.15</v>
+        <v>52.04</v>
       </c>
       <c r="D218" t="s">
         <v>4</v>
@@ -4090,13 +4096,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C219">
-        <v>52.04</v>
+        <v>51.96</v>
       </c>
       <c r="D219" t="s">
         <v>4</v>
@@ -4104,13 +4110,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C220">
-        <v>51.96</v>
+        <v>51.81</v>
       </c>
       <c r="D220" t="s">
         <v>4</v>
@@ -4118,13 +4124,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C221">
-        <v>51.81</v>
+        <v>51.62</v>
       </c>
       <c r="D221" t="s">
         <v>4</v>
@@ -4132,13 +4138,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C222">
-        <v>51.62</v>
+        <v>51.05</v>
       </c>
       <c r="D222" t="s">
         <v>4</v>
@@ -4146,13 +4152,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C223">
-        <v>51.05</v>
+        <v>50.87</v>
       </c>
       <c r="D223" t="s">
         <v>4</v>
@@ -4160,13 +4166,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C224">
-        <v>50.87</v>
+        <v>50.23</v>
       </c>
       <c r="D224" t="s">
         <v>4</v>
@@ -4174,29 +4180,15 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C225">
-        <v>50.23</v>
+        <v>49.81</v>
       </c>
       <c r="D225" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>224</v>
-      </c>
-      <c r="B226" t="s">
-        <v>230</v>
-      </c>
-      <c r="C226">
-        <v>49.81</v>
-      </c>
-      <c r="D226" t="s">
         <v>4</v>
       </c>
     </row>
